--- a/Mifos Automation Excels/Client/3149-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3149-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -172,18 +172,9 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
-  </si>
-  <si>
     <t>L199</t>
   </si>
   <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>Penalties Receivable(5)</t>
   </si>
   <si>
@@ -194,6 +185,12 @@
   </si>
   <si>
     <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>$ 794.68</t>
+  </si>
+  <si>
+    <t>$ 92.05</t>
   </si>
 </sst>
 </file>
@@ -669,7 +666,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD13"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,22 +705,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>785.8</v>
+        <v>794.68</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9214.2000000000007</v>
+        <v>9205.32</v>
       </c>
       <c r="F2" s="7">
-        <v>802.9</v>
+        <v>802.98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>668.41</v>
+        <v>667.37</v>
       </c>
       <c r="B3" s="7">
         <v>101.92</v>
@@ -735,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>566.49</v>
+        <v>565.45000000000005</v>
       </c>
       <c r="F3" s="7">
-        <v>84.82</v>
+        <v>84.74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,10 +760,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>17.760000000000002</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -775,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -791,9 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -908,10 +903,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>785.8</v>
+        <v>794.68</v>
       </c>
       <c r="G3" s="10">
-        <v>9214.2000000000007</v>
+        <v>9205.32</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -920,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>896.6</v>
@@ -954,22 +949,22 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.9</v>
+        <v>802.98</v>
       </c>
       <c r="G4" s="10">
-        <v>8411.2999999999993</v>
+        <v>8402.34</v>
       </c>
       <c r="H4" s="7">
-        <v>84.82</v>
+        <v>84.74</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>896.6</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -984,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>896.6</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1000,13 +995,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.81</v>
+        <v>793.9</v>
       </c>
       <c r="G5" s="10">
-        <v>7617.49</v>
+        <v>7608.44</v>
       </c>
       <c r="H5" s="7">
-        <v>93.91</v>
+        <v>93.82</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1046,13 +1041,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.59</v>
+        <v>812.68</v>
       </c>
       <c r="G6" s="10">
-        <v>6804.9</v>
+        <v>6795.76</v>
       </c>
       <c r="H6" s="7">
-        <v>75.13</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1092,13 +1087,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.37</v>
+        <v>818.46</v>
       </c>
       <c r="G7" s="10">
-        <v>5986.53</v>
+        <v>5977.3</v>
       </c>
       <c r="H7" s="7">
-        <v>69.349999999999994</v>
+        <v>69.260000000000005</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1138,13 +1133,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.67</v>
+        <v>828.77</v>
       </c>
       <c r="G8" s="10">
-        <v>5157.8599999999997</v>
+        <v>5148.53</v>
       </c>
       <c r="H8" s="7">
-        <v>59.05</v>
+        <v>58.95</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1184,13 +1179,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.15</v>
+        <v>835.25</v>
       </c>
       <c r="G9" s="10">
-        <v>4322.71</v>
+        <v>4313.28</v>
       </c>
       <c r="H9" s="7">
-        <v>52.57</v>
+        <v>52.47</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1230,13 +1225,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.66</v>
+        <v>843.76</v>
       </c>
       <c r="G10" s="10">
-        <v>3479.05</v>
+        <v>3469.52</v>
       </c>
       <c r="H10" s="7">
-        <v>44.06</v>
+        <v>43.96</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1276,13 +1271,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.41</v>
+        <v>853.5</v>
       </c>
       <c r="G11" s="10">
-        <v>2625.64</v>
+        <v>2616.02</v>
       </c>
       <c r="H11" s="7">
-        <v>34.31</v>
+        <v>34.22</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1322,13 +1317,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>860.96</v>
+        <v>861.06</v>
       </c>
       <c r="G12" s="10">
-        <v>1764.68</v>
+        <v>1754.96</v>
       </c>
       <c r="H12" s="7">
-        <v>26.76</v>
+        <v>26.66</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1368,13 +1363,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.31</v>
+        <v>870.41</v>
       </c>
       <c r="G13" s="7">
-        <v>894.37</v>
+        <v>884.55</v>
       </c>
       <c r="H13" s="7">
-        <v>17.41</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1414,13 +1409,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>894.37</v>
+        <v>884.55</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.1199999999999992</v>
+        <v>9.02</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1429,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>903.49</v>
+        <v>893.57</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1444,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>903.49</v>
+        <v>893.57</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1453,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1551,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="7">
-        <v>93.7</v>
+        <v>84.82</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -1568,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -1593,7 +1588,7 @@
         <v>896.6</v>
       </c>
       <c r="F4" s="7">
-        <v>785.8</v>
+        <v>794.68</v>
       </c>
       <c r="G4" s="7">
         <v>101.92</v>
@@ -1602,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10">
-        <v>9214.2000000000007</v>
+        <v>9205.32</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1624,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="7">
-        <v>110.8</v>
+        <v>101.92</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1636,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -1788,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1836,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -1854,7 +1849,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1868,7 +1863,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -1886,7 +1881,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
@@ -1895,7 +1890,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -1904,39 +1899,12 @@
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>295</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1947,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,10 +2031,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2089,10 +2057,10 @@
         <v>35</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2118,7 +2086,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,7 +2112,7 @@
         <v>49</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2167,10 +2135,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2193,10 +2161,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2222,7 +2190,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2248,7 +2216,7 @@
         <v>49</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3149-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3149-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -148,15 +148,9 @@
     <t>L7</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -172,25 +166,34 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L199</t>
-  </si>
-  <si>
     <t>Penalties Receivable(5)</t>
   </si>
   <si>
-    <t>$ 8.88</t>
-  </si>
-  <si>
-    <t>$ 896.6</t>
-  </si>
-  <si>
     <t>Income from penalties(9)</t>
   </si>
   <si>
-    <t>$ 794.68</t>
-  </si>
-  <si>
-    <t>$ 92.05</t>
+    <t>L1916</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
+    <t>$ 8.88</t>
+  </si>
+  <si>
+    <t>$ 896.6</t>
+  </si>
+  <si>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>$ 84.82</t>
+  </si>
+  <si>
+    <t>$ 93.91</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -330,6 +333,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,15 +661,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="15">
         <v>42036</v>
@@ -666,7 +685,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,22 +724,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>794.68</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9205.32</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="F2" s="7">
-        <v>802.98</v>
+        <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>667.37</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="7">
         <v>101.92</v>
@@ -732,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>565.45000000000005</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="7">
-        <v>84.74</v>
+        <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,10 +779,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -772,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -803,7 +824,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -886,7 +907,6 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -903,10 +923,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>794.68</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="10">
-        <v>9205.32</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -915,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K3" s="7">
         <v>896.6</v>
@@ -927,9 +947,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -949,22 +966,22 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.98</v>
+        <v>802.9</v>
       </c>
       <c r="G4" s="10">
-        <v>8402.34</v>
+        <v>8411.2999999999993</v>
       </c>
       <c r="H4" s="7">
-        <v>84.74</v>
+        <v>84.82</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K4" s="7">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -975,11 +992,8 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
       <c r="P4" s="7">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -995,13 +1009,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.9</v>
+        <v>793.81</v>
       </c>
       <c r="G5" s="10">
-        <v>7608.44</v>
+        <v>7617.49</v>
       </c>
       <c r="H5" s="7">
-        <v>93.82</v>
+        <v>93.91</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1019,9 +1033,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
@@ -1041,13 +1052,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.68</v>
+        <v>812.59</v>
       </c>
       <c r="G6" s="10">
-        <v>6795.76</v>
+        <v>6804.9</v>
       </c>
       <c r="H6" s="7">
-        <v>75.040000000000006</v>
+        <v>75.13</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1065,9 +1076,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
@@ -1087,13 +1095,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.46</v>
+        <v>818.37</v>
       </c>
       <c r="G7" s="10">
-        <v>5977.3</v>
+        <v>5986.53</v>
       </c>
       <c r="H7" s="7">
-        <v>69.260000000000005</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1111,9 +1119,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
@@ -1133,13 +1138,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.77</v>
+        <v>828.67</v>
       </c>
       <c r="G8" s="10">
-        <v>5148.53</v>
+        <v>5157.8599999999997</v>
       </c>
       <c r="H8" s="7">
-        <v>58.95</v>
+        <v>59.05</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1157,9 +1162,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
@@ -1179,13 +1181,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.25</v>
+        <v>835.15</v>
       </c>
       <c r="G9" s="10">
-        <v>4313.28</v>
+        <v>4322.71</v>
       </c>
       <c r="H9" s="7">
-        <v>52.47</v>
+        <v>52.57</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1203,9 +1205,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
@@ -1225,13 +1224,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.76</v>
+        <v>843.66</v>
       </c>
       <c r="G10" s="10">
-        <v>3469.52</v>
+        <v>3479.05</v>
       </c>
       <c r="H10" s="7">
-        <v>43.96</v>
+        <v>44.06</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1249,9 +1248,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
@@ -1271,13 +1267,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.5</v>
+        <v>853.41</v>
       </c>
       <c r="G11" s="10">
-        <v>2616.02</v>
+        <v>2625.64</v>
       </c>
       <c r="H11" s="7">
-        <v>34.22</v>
+        <v>34.31</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1295,9 +1291,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
@@ -1317,13 +1310,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>861.06</v>
+        <v>860.96</v>
       </c>
       <c r="G12" s="10">
-        <v>1754.96</v>
+        <v>1764.68</v>
       </c>
       <c r="H12" s="7">
-        <v>26.66</v>
+        <v>26.76</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1341,9 +1334,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
@@ -1363,13 +1353,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.41</v>
+        <v>870.31</v>
       </c>
       <c r="G13" s="7">
-        <v>884.55</v>
+        <v>894.37</v>
       </c>
       <c r="H13" s="7">
-        <v>17.309999999999999</v>
+        <v>17.41</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1387,9 +1377,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
@@ -1409,13 +1396,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>884.55</v>
+        <v>894.37</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.02</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1424,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>893.57</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1435,11 +1422,8 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
       <c r="P14" s="7">
-        <v>893.57</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1453,12 +1437,12 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1505,7 +1489,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>201</v>
+        <v>1191</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1539,7 +1523,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>200</v>
+        <v>1190</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1551,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="7">
-        <v>84.82</v>
+        <v>93.7</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -1563,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -1573,7 +1557,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>199</v>
+        <v>1189</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1588,7 +1572,7 @@
         <v>896.6</v>
       </c>
       <c r="F4" s="7">
-        <v>794.68</v>
+        <v>785.8</v>
       </c>
       <c r="G4" s="7">
         <v>101.92</v>
@@ -1597,17 +1581,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J4" s="10">
-        <v>9205.32</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>196</v>
+        <v>1176</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1619,7 +1603,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="7">
-        <v>101.92</v>
+        <v>110.8</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1631,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -1641,7 +1625,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>184</v>
+        <v>1171</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1683,7 +1667,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,9 +1727,8 @@
         <v>38</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="13"/>
+        <v>55</v>
+      </c>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1770,9 +1753,8 @@
       <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -1783,20 +1765,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1825,86 +1808,112 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>292</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>3539</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>293</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="I2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>3540</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <v>42036</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>295</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="G3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3541</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="17">
         <v>42036</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>3542</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="H5" s="19" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1915,14 +1924,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
     <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
@@ -1966,7 +1975,7 @@
       <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
       <c r="D2" s="12">
@@ -1979,11 +1988,12 @@
         <v>35</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1992,23 +2002,24 @@
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <v>42036</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,7 +2029,7 @@
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="17">
         <v>42036</v>
       </c>
       <c r="D4" s="12">
@@ -2031,11 +2042,12 @@
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -2044,24 +2056,29 @@
       <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="17">
         <v>42036</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -2070,7 +2087,7 @@
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="17">
         <v>42064</v>
       </c>
       <c r="D7" s="12">
@@ -2083,11 +2100,12 @@
         <v>35</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>56</v>
       </c>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -2096,22 +2114,23 @@
       <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="17">
         <v>42064</v>
       </c>
       <c r="D8" s="12">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2122,7 +2141,7 @@
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="17">
         <v>42064</v>
       </c>
       <c r="D9" s="12">
@@ -2135,11 +2154,12 @@
         <v>35</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -2148,24 +2168,29 @@
       <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="17">
         <v>42064</v>
       </c>
       <c r="D10" s="12">
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -2174,7 +2199,7 @@
       <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="17">
         <v>42095</v>
       </c>
       <c r="D12" s="12">
@@ -2187,11 +2212,12 @@
         <v>35</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -2200,23 +2226,24 @@
       <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="17">
         <v>42095</v>
       </c>
       <c r="D13" s="12">
         <v>3</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3149-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3149-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -805,10 +805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,12 +826,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,17 +872,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -907,8 +909,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -946,14 +949,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -989,14 +993,15 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
         <v>896.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1032,14 +1037,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1075,14 +1081,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1118,14 +1125,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1161,14 +1169,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1204,14 +1213,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1247,14 +1257,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1290,14 +1301,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1333,14 +1345,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1376,14 +1389,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1419,10 +1433,11 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>903.49</v>
       </c>
     </row>
@@ -1924,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
